--- a/Documentation/Kreuzleliste.xlsx
+++ b/Documentation/Kreuzleliste.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t xml:space="preserve">KW</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t xml:space="preserve">erste Steuerung in Stateflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git Repository aufgesetzt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visualisierung durch geradengleichungen</t>
   </si>
 </sst>
 </file>
@@ -125,7 +131,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -144,6 +150,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -163,16 +177,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.1887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="2" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -216,6 +230,8 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -233,6 +249,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -243,11 +261,15 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -258,11 +280,51 @@
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" s="6" customFormat="true" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
